--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Icam5</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.53216925503912</v>
+        <v>1.577195666666666</v>
       </c>
       <c r="H2">
-        <v>1.53216925503912</v>
+        <v>4.731586999999999</v>
       </c>
       <c r="I2">
-        <v>0.5341141259340965</v>
+        <v>0.4552443346622715</v>
       </c>
       <c r="J2">
-        <v>0.5341141259340965</v>
+        <v>0.4552443346622714</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.492536771347505</v>
+        <v>0.464112</v>
       </c>
       <c r="N2">
-        <v>0.492536771347505</v>
+        <v>1.392336</v>
       </c>
       <c r="O2">
-        <v>0.02663391367080581</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="P2">
-        <v>0.02663391367080581</v>
+        <v>0.0167460263222975</v>
       </c>
       <c r="Q2">
-        <v>0.7546496980348801</v>
+        <v>0.7319954352479999</v>
       </c>
       <c r="R2">
-        <v>0.7546496980348801</v>
+        <v>6.587958917231999</v>
       </c>
       <c r="S2">
-        <v>0.01422554952048663</v>
+        <v>0.007623533611331211</v>
       </c>
       <c r="T2">
-        <v>0.01422554952048663</v>
+        <v>0.007623533611331211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.53216925503912</v>
+        <v>1.577195666666666</v>
       </c>
       <c r="H3">
-        <v>1.53216925503912</v>
+        <v>4.731586999999999</v>
       </c>
       <c r="I3">
-        <v>0.5341141259340965</v>
+        <v>0.4552443346622715</v>
       </c>
       <c r="J3">
-        <v>0.5341141259340965</v>
+        <v>0.4552443346622714</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51149811747412</v>
+        <v>0.519977</v>
       </c>
       <c r="N3">
-        <v>2.51149811747412</v>
+        <v>1.559931</v>
       </c>
       <c r="O3">
-        <v>0.1358091982902991</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="P3">
-        <v>0.1358091982902991</v>
+        <v>0.01876173968565624</v>
       </c>
       <c r="Q3">
-        <v>3.848040199682475</v>
+        <v>0.8201054711663333</v>
       </c>
       <c r="R3">
-        <v>3.848040199682475</v>
+        <v>7.380949240496999</v>
       </c>
       <c r="S3">
-        <v>0.07253761123863352</v>
+        <v>0.00854117570030331</v>
       </c>
       <c r="T3">
-        <v>0.07253761123863352</v>
+        <v>0.008541175700303308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.53216925503912</v>
+        <v>1.577195666666666</v>
       </c>
       <c r="H4">
-        <v>1.53216925503912</v>
+        <v>4.731586999999999</v>
       </c>
       <c r="I4">
-        <v>0.5341141259340965</v>
+        <v>0.4552443346622715</v>
       </c>
       <c r="J4">
-        <v>0.5341141259340965</v>
+        <v>0.4552443346622714</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.4888076365106</v>
+        <v>2.638014666666666</v>
       </c>
       <c r="N4">
-        <v>15.4888076365106</v>
+        <v>7.914044</v>
       </c>
       <c r="O4">
-        <v>0.8375568880388951</v>
+        <v>0.09518448789647081</v>
       </c>
       <c r="P4">
-        <v>0.8375568880388951</v>
+        <v>0.09518448789647084</v>
       </c>
       <c r="Q4">
-        <v>23.73147485787668</v>
+        <v>4.160665300869777</v>
       </c>
       <c r="R4">
-        <v>23.73147485787668</v>
+        <v>37.445987707828</v>
       </c>
       <c r="S4">
-        <v>0.4473509651749763</v>
+        <v>0.04333219886259789</v>
       </c>
       <c r="T4">
-        <v>0.4473509651749763</v>
+        <v>0.0433321988625979</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33644848159077</v>
+        <v>1.577195666666666</v>
       </c>
       <c r="H5">
-        <v>1.33644848159077</v>
+        <v>4.731586999999999</v>
       </c>
       <c r="I5">
-        <v>0.4658858740659035</v>
+        <v>0.4552443346622715</v>
       </c>
       <c r="J5">
-        <v>0.4658858740659035</v>
+        <v>0.4552443346622714</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.492536771347505</v>
+        <v>24.04528633333333</v>
       </c>
       <c r="N5">
-        <v>0.492536771347505</v>
+        <v>72.135859</v>
       </c>
       <c r="O5">
-        <v>0.02663391367080581</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="P5">
-        <v>0.02663391367080581</v>
+        <v>0.8675987646627977</v>
       </c>
       <c r="Q5">
-        <v>0.6582500201949933</v>
+        <v>37.92412140869255</v>
       </c>
       <c r="R5">
-        <v>0.6582500201949933</v>
+        <v>341.3170926782329</v>
       </c>
       <c r="S5">
-        <v>0.01240836415031918</v>
+        <v>0.394969422372724</v>
       </c>
       <c r="T5">
-        <v>0.01240836415031918</v>
+        <v>0.394969422372724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33644848159077</v>
+        <v>1.577195666666666</v>
       </c>
       <c r="H6">
-        <v>1.33644848159077</v>
+        <v>4.731586999999999</v>
       </c>
       <c r="I6">
-        <v>0.4658858740659035</v>
+        <v>0.4552443346622715</v>
       </c>
       <c r="J6">
-        <v>0.4658858740659035</v>
+        <v>0.4552443346622714</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.51149811747412</v>
+        <v>0.047364</v>
       </c>
       <c r="N6">
-        <v>2.51149811747412</v>
+        <v>0.142092</v>
       </c>
       <c r="O6">
-        <v>0.1358091982902991</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="P6">
-        <v>0.1358091982902991</v>
+        <v>0.001708981432777646</v>
       </c>
       <c r="Q6">
-        <v>3.356487845616365</v>
+        <v>0.07470229555599998</v>
       </c>
       <c r="R6">
-        <v>3.356487845616365</v>
+        <v>0.6723206600039999</v>
       </c>
       <c r="S6">
-        <v>0.06327158705166562</v>
+        <v>0.0007780041153150348</v>
       </c>
       <c r="T6">
-        <v>0.06327158705166562</v>
+        <v>0.0007780041153150349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.358655</v>
+      </c>
+      <c r="H7">
+        <v>4.075965</v>
+      </c>
+      <c r="I7">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="J7">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.464112</v>
+      </c>
+      <c r="N7">
+        <v>1.392336</v>
+      </c>
+      <c r="O7">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="P7">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="Q7">
+        <v>0.63056808936</v>
+      </c>
+      <c r="R7">
+        <v>5.67511280424</v>
+      </c>
+      <c r="S7">
+        <v>0.006567195356676233</v>
+      </c>
+      <c r="T7">
+        <v>0.006567195356676232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.358655</v>
+      </c>
+      <c r="H8">
+        <v>4.075965</v>
+      </c>
+      <c r="I8">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="J8">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.519977</v>
+      </c>
+      <c r="N8">
+        <v>1.559931</v>
+      </c>
+      <c r="O8">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="P8">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="Q8">
+        <v>0.706469350935</v>
+      </c>
+      <c r="R8">
+        <v>6.358224158415</v>
+      </c>
+      <c r="S8">
+        <v>0.007357686377379679</v>
+      </c>
+      <c r="T8">
+        <v>0.007357686377379678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.358655</v>
+      </c>
+      <c r="H9">
+        <v>4.075965</v>
+      </c>
+      <c r="I9">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="J9">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.638014666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.914044</v>
+      </c>
+      <c r="O9">
+        <v>0.09518448789647081</v>
+      </c>
+      <c r="P9">
+        <v>0.09518448789647084</v>
+      </c>
+      <c r="Q9">
+        <v>3.58415181694</v>
+      </c>
+      <c r="R9">
+        <v>32.25736635246</v>
+      </c>
+      <c r="S9">
+        <v>0.03732796753752786</v>
+      </c>
+      <c r="T9">
+        <v>0.03732796753752787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.358655</v>
+      </c>
+      <c r="H10">
+        <v>4.075965</v>
+      </c>
+      <c r="I10">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="J10">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>24.04528633333333</v>
+      </c>
+      <c r="N10">
+        <v>72.135859</v>
+      </c>
+      <c r="O10">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="P10">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="Q10">
+        <v>32.669248503215</v>
+      </c>
+      <c r="R10">
+        <v>294.023236528935</v>
+      </c>
+      <c r="S10">
+        <v>0.3402413485499559</v>
+      </c>
+      <c r="T10">
+        <v>0.3402413485499559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.358655</v>
+      </c>
+      <c r="H11">
+        <v>4.075965</v>
+      </c>
+      <c r="I11">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="J11">
+        <v>0.3921643994988797</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.047364</v>
+      </c>
+      <c r="N11">
+        <v>0.142092</v>
+      </c>
+      <c r="O11">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P11">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q11">
+        <v>0.06435133541999999</v>
+      </c>
+      <c r="R11">
+        <v>0.57916201878</v>
+      </c>
+      <c r="S11">
+        <v>0.0006702016773399805</v>
+      </c>
+      <c r="T11">
+        <v>0.0006702016773399806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.5286529999999999</v>
+      </c>
+      <c r="H12">
+        <v>1.585959</v>
+      </c>
+      <c r="I12">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="J12">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.464112</v>
+      </c>
+      <c r="N12">
+        <v>1.392336</v>
+      </c>
+      <c r="O12">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="P12">
+        <v>0.0167460263222975</v>
+      </c>
+      <c r="Q12">
+        <v>0.245354201136</v>
+      </c>
+      <c r="R12">
+        <v>2.208187810224</v>
+      </c>
+      <c r="S12">
+        <v>0.002555297354290059</v>
+      </c>
+      <c r="T12">
+        <v>0.002555297354290058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.5286529999999999</v>
+      </c>
+      <c r="H13">
+        <v>1.585959</v>
+      </c>
+      <c r="I13">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="J13">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.519977</v>
+      </c>
+      <c r="N13">
+        <v>1.559931</v>
+      </c>
+      <c r="O13">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="P13">
+        <v>0.01876173968565624</v>
+      </c>
+      <c r="Q13">
+        <v>0.274887400981</v>
+      </c>
+      <c r="R13">
+        <v>2.473986608829</v>
+      </c>
+      <c r="S13">
+        <v>0.002862877607973252</v>
+      </c>
+      <c r="T13">
+        <v>0.002862877607973252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.33644848159077</v>
-      </c>
-      <c r="H7">
-        <v>1.33644848159077</v>
-      </c>
-      <c r="I7">
-        <v>0.4658858740659035</v>
-      </c>
-      <c r="J7">
-        <v>0.4658858740659035</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>15.4888076365106</v>
-      </c>
-      <c r="N7">
-        <v>15.4888076365106</v>
-      </c>
-      <c r="O7">
-        <v>0.8375568880388951</v>
-      </c>
-      <c r="P7">
-        <v>0.8375568880388951</v>
-      </c>
-      <c r="Q7">
-        <v>20.69999344746611</v>
-      </c>
-      <c r="R7">
-        <v>20.69999344746611</v>
-      </c>
-      <c r="S7">
-        <v>0.3902059228639187</v>
-      </c>
-      <c r="T7">
-        <v>0.3902059228639187</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5286529999999999</v>
+      </c>
+      <c r="H14">
+        <v>1.585959</v>
+      </c>
+      <c r="I14">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="J14">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.638014666666666</v>
+      </c>
+      <c r="N14">
+        <v>7.914044</v>
+      </c>
+      <c r="O14">
+        <v>0.09518448789647081</v>
+      </c>
+      <c r="P14">
+        <v>0.09518448789647084</v>
+      </c>
+      <c r="Q14">
+        <v>1.394594367577333</v>
+      </c>
+      <c r="R14">
+        <v>12.551349308196</v>
+      </c>
+      <c r="S14">
+        <v>0.01452432149634507</v>
+      </c>
+      <c r="T14">
+        <v>0.01452432149634507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5286529999999999</v>
+      </c>
+      <c r="H15">
+        <v>1.585959</v>
+      </c>
+      <c r="I15">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="J15">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.04528633333333</v>
+      </c>
+      <c r="N15">
+        <v>72.135859</v>
+      </c>
+      <c r="O15">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="P15">
+        <v>0.8675987646627977</v>
+      </c>
+      <c r="Q15">
+        <v>12.71161275597566</v>
+      </c>
+      <c r="R15">
+        <v>114.404514803781</v>
+      </c>
+      <c r="S15">
+        <v>0.1323879937401179</v>
+      </c>
+      <c r="T15">
+        <v>0.1323879937401178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5286529999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.585959</v>
+      </c>
+      <c r="I16">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="J16">
+        <v>0.1525912658388489</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.047364</v>
+      </c>
+      <c r="N16">
+        <v>0.142092</v>
+      </c>
+      <c r="O16">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="P16">
+        <v>0.001708981432777646</v>
+      </c>
+      <c r="Q16">
+        <v>0.02503912069199999</v>
+      </c>
+      <c r="R16">
+        <v>0.225352086228</v>
+      </c>
+      <c r="S16">
+        <v>0.0002607756401226306</v>
+      </c>
+      <c r="T16">
+        <v>0.0002607756401226306</v>
       </c>
     </row>
   </sheetData>
